--- a/natmiOut/OldD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H2">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I2">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J2">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.7809202762827</v>
+        <v>14.08030833333333</v>
       </c>
       <c r="N2">
-        <v>13.7809202762827</v>
+        <v>42.240925</v>
       </c>
       <c r="O2">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="P2">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="Q2">
-        <v>77.59645254818165</v>
+        <v>86.06411526208609</v>
       </c>
       <c r="R2">
-        <v>77.59645254818165</v>
+        <v>774.5770373587749</v>
       </c>
       <c r="S2">
-        <v>0.00314689776950396</v>
+        <v>0.00330762587065424</v>
       </c>
       <c r="T2">
-        <v>0.00314689776950396</v>
+        <v>0.003307625870654241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H3">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I3">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J3">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.0977438451586</v>
+        <v>43.15322233333333</v>
       </c>
       <c r="N3">
-        <v>43.0977438451586</v>
+        <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="P3">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="Q3">
-        <v>242.6711691359278</v>
+        <v>263.7686485908934</v>
       </c>
       <c r="R3">
-        <v>242.6711691359278</v>
+        <v>2373.917837318041</v>
       </c>
       <c r="S3">
-        <v>0.009841446816174907</v>
+        <v>0.01013718671585632</v>
       </c>
       <c r="T3">
-        <v>0.009841446816174907</v>
+        <v>0.01013718671585632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H4">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I4">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J4">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.8787748879485</v>
+        <v>21.909414</v>
       </c>
       <c r="N4">
-        <v>20.8787748879485</v>
+        <v>65.72824199999999</v>
       </c>
       <c r="O4">
-        <v>0.2388508613004085</v>
+        <v>0.2421924229181179</v>
       </c>
       <c r="P4">
-        <v>0.2388508613004085</v>
+        <v>0.242192422918118</v>
       </c>
       <c r="Q4">
-        <v>117.5624582666751</v>
+        <v>133.918539791974</v>
       </c>
       <c r="R4">
-        <v>117.5624582666751</v>
+        <v>1205.266858127766</v>
       </c>
       <c r="S4">
-        <v>0.004767705552867724</v>
+        <v>0.005146772559356184</v>
       </c>
       <c r="T4">
-        <v>0.004767705552867724</v>
+        <v>0.005146772559356184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.63071630867258</v>
+        <v>6.112374333333332</v>
       </c>
       <c r="H5">
-        <v>5.63071630867258</v>
+        <v>18.337123</v>
       </c>
       <c r="I5">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="J5">
-        <v>0.01996101469724769</v>
+        <v>0.02125075796073207</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.65599870766644</v>
+        <v>11.31989366666667</v>
       </c>
       <c r="N5">
-        <v>9.65599870766644</v>
+        <v>33.959681</v>
       </c>
       <c r="O5">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="P5">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="Q5">
-        <v>54.37018939977878</v>
+        <v>69.19142750419589</v>
       </c>
       <c r="R5">
-        <v>54.37018939977878</v>
+        <v>622.722847537763</v>
       </c>
       <c r="S5">
-        <v>0.002204964558701094</v>
+        <v>0.002659172814865329</v>
       </c>
       <c r="T5">
-        <v>0.002204964558701094</v>
+        <v>0.00265917281486533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H6">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I6">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J6">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7809202762827</v>
+        <v>14.08030833333333</v>
       </c>
       <c r="N6">
-        <v>13.7809202762827</v>
+        <v>42.240925</v>
       </c>
       <c r="O6">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="P6">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="Q6">
-        <v>3617.554449174266</v>
+        <v>3704.394927774711</v>
       </c>
       <c r="R6">
-        <v>3617.554449174266</v>
+        <v>33339.55434997239</v>
       </c>
       <c r="S6">
-        <v>0.1467086916131502</v>
+        <v>0.1423677273729635</v>
       </c>
       <c r="T6">
-        <v>0.1467086916131502</v>
+        <v>0.1423677273729635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H7">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I7">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J7">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.0977438451586</v>
+        <v>43.15322233333333</v>
       </c>
       <c r="N7">
-        <v>43.0977438451586</v>
+        <v>129.459667</v>
       </c>
       <c r="O7">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="P7">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="Q7">
-        <v>11313.3543965673</v>
+        <v>11353.20151692235</v>
       </c>
       <c r="R7">
-        <v>11313.3543965673</v>
+        <v>102178.8136523011</v>
       </c>
       <c r="S7">
-        <v>0.4588092438125219</v>
+        <v>0.4363275325351099</v>
       </c>
       <c r="T7">
-        <v>0.4588092438125219</v>
+        <v>0.4363275325351099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H8">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I8">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J8">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.8787748879485</v>
+        <v>21.909414</v>
       </c>
       <c r="N8">
-        <v>20.8787748879485</v>
+        <v>65.72824199999999</v>
       </c>
       <c r="O8">
-        <v>0.2388508613004085</v>
+        <v>0.2421924229181179</v>
       </c>
       <c r="P8">
-        <v>0.2388508613004085</v>
+        <v>0.242192422918118</v>
       </c>
       <c r="Q8">
-        <v>5480.773669316931</v>
+        <v>5764.158012078303</v>
       </c>
       <c r="R8">
-        <v>5480.773669316931</v>
+        <v>51877.42210870473</v>
       </c>
       <c r="S8">
-        <v>0.2222709140526767</v>
+        <v>0.2215287766013686</v>
       </c>
       <c r="T8">
-        <v>0.2222709140526767</v>
+        <v>0.2215287766013687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>262.504562587171</v>
+        <v>263.0904693333333</v>
       </c>
       <c r="H9">
-        <v>262.504562587171</v>
+        <v>789.271408</v>
       </c>
       <c r="I9">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="J9">
-        <v>0.9305845197397934</v>
+        <v>0.9146808720612395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.65599870766644</v>
+        <v>11.31989366666667</v>
       </c>
       <c r="N9">
-        <v>9.65599870766644</v>
+        <v>33.959681</v>
       </c>
       <c r="O9">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="P9">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="Q9">
-        <v>2534.743717098267</v>
+        <v>2978.156137566761</v>
       </c>
       <c r="R9">
-        <v>2534.743717098267</v>
+        <v>26803.40523810085</v>
       </c>
       <c r="S9">
-        <v>0.1027956702614446</v>
+        <v>0.1144568355517974</v>
       </c>
       <c r="T9">
-        <v>0.1027956702614446</v>
+        <v>0.1144568355517974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.6296367611314</v>
+        <v>8.317515</v>
       </c>
       <c r="H10">
-        <v>7.6296367611314</v>
+        <v>24.952545</v>
       </c>
       <c r="I10">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J10">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.7809202762827</v>
+        <v>14.08030833333333</v>
       </c>
       <c r="N10">
-        <v>13.7809202762827</v>
+        <v>42.240925</v>
       </c>
       <c r="O10">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="P10">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="Q10">
-        <v>105.1434159421476</v>
+        <v>117.113175767125</v>
       </c>
       <c r="R10">
-        <v>105.1434159421476</v>
+        <v>1054.018581904125</v>
       </c>
       <c r="S10">
-        <v>0.004264055510796993</v>
+        <v>0.004500906896936019</v>
       </c>
       <c r="T10">
-        <v>0.004264055510796993</v>
+        <v>0.00450090689693602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.6296367611314</v>
+        <v>8.317515</v>
       </c>
       <c r="H11">
-        <v>7.6296367611314</v>
+        <v>24.952545</v>
       </c>
       <c r="I11">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J11">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.0977438451586</v>
+        <v>43.15322233333333</v>
       </c>
       <c r="N11">
-        <v>43.0977438451586</v>
+        <v>129.459667</v>
       </c>
       <c r="O11">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="P11">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="Q11">
-        <v>328.8201307628466</v>
+        <v>358.927574055835</v>
       </c>
       <c r="R11">
-        <v>328.8201307628466</v>
+        <v>3230.348166502515</v>
       </c>
       <c r="S11">
-        <v>0.01333518868563084</v>
+        <v>0.01379434536708986</v>
       </c>
       <c r="T11">
-        <v>0.01333518868563084</v>
+        <v>0.01379434536708986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.6296367611314</v>
+        <v>8.317515</v>
       </c>
       <c r="H12">
-        <v>7.6296367611314</v>
+        <v>24.952545</v>
       </c>
       <c r="I12">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J12">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.8787748879485</v>
+        <v>21.909414</v>
       </c>
       <c r="N12">
-        <v>20.8787748879485</v>
+        <v>65.72824199999999</v>
       </c>
       <c r="O12">
-        <v>0.2388508613004085</v>
+        <v>0.2421924229181179</v>
       </c>
       <c r="P12">
-        <v>0.2388508613004085</v>
+        <v>0.242192422918118</v>
       </c>
       <c r="Q12">
-        <v>159.297468412479</v>
+        <v>182.23187958621</v>
       </c>
       <c r="R12">
-        <v>159.297468412479</v>
+        <v>1640.08691627589</v>
       </c>
       <c r="S12">
-        <v>0.006460254709757409</v>
+        <v>0.007003556331715741</v>
       </c>
       <c r="T12">
-        <v>0.006460254709757409</v>
+        <v>0.007003556331715742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.6296367611314</v>
+        <v>8.317515</v>
       </c>
       <c r="H13">
-        <v>7.6296367611314</v>
+        <v>24.952545</v>
       </c>
       <c r="I13">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="J13">
-        <v>0.02704723221254032</v>
+        <v>0.02891732221566466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.65599870766644</v>
+        <v>11.31989366666667</v>
       </c>
       <c r="N13">
-        <v>9.65599870766644</v>
+        <v>33.959681</v>
       </c>
       <c r="O13">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="P13">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="Q13">
-        <v>73.67176270544915</v>
+        <v>94.15338537090501</v>
       </c>
       <c r="R13">
-        <v>73.67176270544915</v>
+        <v>847.3804683381451</v>
       </c>
       <c r="S13">
-        <v>0.00298773330635507</v>
+        <v>0.003618513619923028</v>
       </c>
       <c r="T13">
-        <v>0.00298773330635507</v>
+        <v>0.003618513619923029</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.32075954915415</v>
+        <v>10.110527</v>
       </c>
       <c r="H14">
-        <v>6.32075954915415</v>
+        <v>30.331581</v>
       </c>
       <c r="I14">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="J14">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.7809202762827</v>
+        <v>14.08030833333333</v>
       </c>
       <c r="N14">
-        <v>13.7809202762827</v>
+        <v>42.240925</v>
       </c>
       <c r="O14">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="P14">
-        <v>0.1576521944016137</v>
+        <v>0.1556474304006564</v>
       </c>
       <c r="Q14">
-        <v>87.10588343244592</v>
+        <v>142.3593375724917</v>
       </c>
       <c r="R14">
-        <v>87.10588343244592</v>
+        <v>1281.234038152425</v>
       </c>
       <c r="S14">
-        <v>0.003532549508162529</v>
+        <v>0.005471170260102668</v>
       </c>
       <c r="T14">
-        <v>0.003532549508162529</v>
+        <v>0.005471170260102669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.32075954915415</v>
+        <v>10.110527</v>
       </c>
       <c r="H15">
-        <v>6.32075954915415</v>
+        <v>30.331581</v>
       </c>
       <c r="I15">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="J15">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.0977438451586</v>
+        <v>43.15322233333333</v>
       </c>
       <c r="N15">
-        <v>43.0977438451586</v>
+        <v>129.459667</v>
       </c>
       <c r="O15">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="P15">
-        <v>0.4930333936145987</v>
+        <v>0.4770270657916382</v>
       </c>
       <c r="Q15">
-        <v>272.4104759562857</v>
+        <v>436.3018195381696</v>
       </c>
       <c r="R15">
-        <v>272.4104759562857</v>
+        <v>3926.716375843527</v>
       </c>
       <c r="S15">
-        <v>0.01104751430027114</v>
+        <v>0.01676800117358213</v>
       </c>
       <c r="T15">
-        <v>0.01104751430027114</v>
+        <v>0.01676800117358213</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.32075954915415</v>
+        <v>10.110527</v>
       </c>
       <c r="H16">
-        <v>6.32075954915415</v>
+        <v>30.331581</v>
       </c>
       <c r="I16">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="J16">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.8787748879485</v>
+        <v>21.909414</v>
       </c>
       <c r="N16">
-        <v>20.8787748879485</v>
+        <v>65.72824199999999</v>
       </c>
       <c r="O16">
-        <v>0.2388508613004085</v>
+        <v>0.2421924229181179</v>
       </c>
       <c r="P16">
-        <v>0.2388508613004085</v>
+        <v>0.242192422918118</v>
       </c>
       <c r="Q16">
-        <v>131.9697157476404</v>
+        <v>221.515721801178</v>
       </c>
       <c r="R16">
-        <v>131.9697157476404</v>
+        <v>1993.641496210602</v>
       </c>
       <c r="S16">
-        <v>0.005351986985106742</v>
+        <v>0.008513317425677375</v>
       </c>
       <c r="T16">
-        <v>0.005351986985106742</v>
+        <v>0.008513317425677376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.32075954915415</v>
+        <v>10.110527</v>
       </c>
       <c r="H17">
-        <v>6.32075954915415</v>
+        <v>30.331581</v>
       </c>
       <c r="I17">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="J17">
-        <v>0.02240723335041869</v>
+        <v>0.03515104776236379</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.65599870766644</v>
+        <v>11.31989366666667</v>
       </c>
       <c r="N17">
-        <v>9.65599870766644</v>
+        <v>33.959681</v>
       </c>
       <c r="O17">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="P17">
-        <v>0.110463550683379</v>
+        <v>0.1251330808895874</v>
       </c>
       <c r="Q17">
-        <v>61.03324603810278</v>
+        <v>114.4500905539623</v>
       </c>
       <c r="R17">
-        <v>61.03324603810278</v>
+        <v>1030.050814985661</v>
       </c>
       <c r="S17">
-        <v>0.002475182556878276</v>
+        <v>0.004398558903001618</v>
       </c>
       <c r="T17">
-        <v>0.002475182556878276</v>
+        <v>0.004398558903001619</v>
       </c>
     </row>
   </sheetData>
